--- a/documents/lecture_00/1125_Schedule_2023.xlsx
+++ b/documents/lecture_00/1125_Schedule_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE7CC1-15FA-3F45-A93C-AFA91D969592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8985EF-78B9-E240-BA55-FBE12D3479CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="500" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2620" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -1716,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -2603,6 +2603,6 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/documents/lecture_00/1125_Schedule_2023.xlsx
+++ b/documents/lecture_00/1125_Schedule_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8985EF-78B9-E240-BA55-FBE12D3479CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF2930-E9C0-B047-AD31-1AF704FAB1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2620" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>SES #</t>
   </si>
@@ -133,9 +133,6 @@
     <t xml:space="preserve">Project </t>
   </si>
   <si>
-    <t xml:space="preserve">Veterans Day No Class </t>
-  </si>
-  <si>
     <t>ThanksGiving</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Debrief</t>
   </si>
   <si>
-    <t>Data Engr – Colab Python Pandas and DataBricks</t>
-  </si>
-  <si>
     <t>Open Source 1 - Students Demo an ML App</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>HW00: Install VSCode Copilot and Git</t>
   </si>
   <si>
-    <t>Introduction to Generative AI and its Importance</t>
-  </si>
-  <si>
     <t>Copilot and LLMs</t>
   </si>
   <si>
@@ -224,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">HW3 - </t>
+  </si>
+  <si>
+    <t>LangChain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Networks and Generative AI </t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1714,7 @@
   <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1737,7 @@
     </row>
     <row r="3" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -1799,7 +1796,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1841,9 +1838,6 @@
       <c r="B7" s="15">
         <f>B5+5</f>
         <v>45181</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="21"/>
@@ -1875,7 +1869,9 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="22"/>
     </row>
@@ -1888,10 +1884,10 @@
         <v>45183</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9"/>
@@ -1935,7 +1931,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
@@ -1956,10 +1952,10 @@
         <v>45190</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13"/>
@@ -2003,7 +1999,7 @@
         <v>45195</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2072,10 +2068,10 @@
         <v>45197</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17"/>
@@ -2105,7 +2101,7 @@
     </row>
     <row r="18" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -2157,7 +2153,9 @@
         <f>B17+5</f>
         <v>45202</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
@@ -2177,10 +2175,10 @@
         <v>45204</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="27"/>
     </row>
@@ -2200,7 +2198,7 @@
         <v>45209</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2221,10 +2219,10 @@
         <v>45211</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -2244,7 +2242,7 @@
         <v>45216</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="29"/>
@@ -2265,10 +2263,10 @@
         <v>45218</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -2288,7 +2286,7 @@
         <v>45223</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
@@ -2309,10 +2307,10 @@
         <v>45225</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="27"/>
     </row>
@@ -2402,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="30"/>
     </row>
@@ -2443,10 +2441,10 @@
         <v>45239</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="25"/>
     </row>
@@ -2501,7 +2499,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="14">
         <f>B48+5</f>
@@ -2521,14 +2519,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>B50+2</f>
         <v>45253</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2538,7 +2536,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="15">
         <f>B52+5</f>
@@ -2557,21 +2555,21 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="14">
         <f>B54+2</f>
         <v>45260</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="9"/>

--- a/documents/lecture_00/1125_Schedule_2023.xlsx
+++ b/documents/lecture_00/1125_Schedule_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF2930-E9C0-B047-AD31-1AF704FAB1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC74A0-37C5-4C4C-ABFD-8E577FA11398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2620" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="1560" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -208,12 +208,6 @@
     <t xml:space="preserve">Embeddings </t>
   </si>
   <si>
-    <t xml:space="preserve">HW02: </t>
-  </si>
-  <si>
-    <t>HW01- Github, Codespaces</t>
-  </si>
-  <si>
     <t xml:space="preserve">HW3 - </t>
   </si>
   <si>
@@ -221,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">Neural Networks and Generative AI </t>
+  </si>
+  <si>
+    <t>HW02:  Titanic</t>
+  </si>
+  <si>
+    <t>HW01- Sense-Making</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1870,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="22"/>
@@ -1887,7 +1887,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9"/>
@@ -1955,7 +1955,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13"/>
@@ -2071,7 +2071,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17"/>
@@ -2154,7 +2154,7 @@
         <v>45202</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2175,7 +2175,7 @@
         <v>45204</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>40</v>
